--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Ryk</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H2">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.429446</v>
+        <v>8.799974000000001</v>
       </c>
       <c r="N2">
-        <v>34.288338</v>
+        <v>26.399922</v>
       </c>
       <c r="O2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="P2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="Q2">
-        <v>1.292087440854</v>
+        <v>0.5997563613206667</v>
       </c>
       <c r="R2">
-        <v>11.628786967686</v>
+        <v>5.397807251886</v>
       </c>
       <c r="S2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="T2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H3">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>79.081869</v>
       </c>
       <c r="O3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="P3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="Q3">
-        <v>2.980042069527</v>
+        <v>1.796590686816333</v>
       </c>
       <c r="R3">
-        <v>26.820378625743</v>
+        <v>16.169316181347</v>
       </c>
       <c r="S3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="T3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H4">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.731426</v>
+        <v>23.07309566666667</v>
       </c>
       <c r="N4">
-        <v>44.194278</v>
+        <v>69.21928700000001</v>
       </c>
       <c r="O4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="P4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="Q4">
-        <v>1.665372977874</v>
+        <v>1.572531453097889</v>
       </c>
       <c r="R4">
-        <v>14.988356800866</v>
+        <v>14.152783077881</v>
       </c>
       <c r="S4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="T4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.113049</v>
+        <v>0.06815433333333333</v>
       </c>
       <c r="H5">
-        <v>0.339147</v>
+        <v>0.204463</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3560123333333333</v>
+        <v>0.3460956666666666</v>
       </c>
       <c r="N5">
-        <v>1.068037</v>
+        <v>1.038287</v>
       </c>
       <c r="O5">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="P5">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
       <c r="Q5">
-        <v>0.040246838271</v>
+        <v>0.02358791943122222</v>
       </c>
       <c r="R5">
-        <v>0.362221544439</v>
+        <v>0.212291274881</v>
       </c>
       <c r="S5">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="T5">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
     </row>
   </sheetData>
